--- a/output/2017-06-01 to 2017-07-01.xlsx
+++ b/output/2017-06-01 to 2017-07-01.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>name</t>
   </si>
@@ -77,6 +77,9 @@
     <t>project</t>
   </si>
   <si>
+    <t>users</t>
+  </si>
+  <si>
     <t>2016-10-103-02</t>
   </si>
   <si>
@@ -84,6 +87,15 @@
   </si>
   <si>
     <t>2017-03-103-01</t>
+  </si>
+  <si>
+    <t>['Jonathan Hoff']</t>
+  </si>
+  <si>
+    <t>['Won Dong Shin']</t>
+  </si>
+  <si>
+    <t>['Daniel Olivas Hernandez', 'Tanya Verma']</t>
   </si>
   <si>
     <t>cfop_HUTCHINSON</t>
@@ -670,13 +682,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
@@ -686,13 +698,16 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>113</v>
@@ -700,13 +715,16 @@
       <c r="D2">
         <v>68.90243902439025</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>44</v>
@@ -714,19 +732,25 @@
       <c r="D3">
         <v>26.82926829268293</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>7</v>
       </c>
       <c r="D4">
         <v>4.26829268292683</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>226</v>
@@ -772,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>44</v>
@@ -786,7 +810,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>14</v>
